--- a/doc/例会模板.xlsx
+++ b/doc/例会模板.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="例会模板" sheetId="1" r:id="rId1"/>
+    <sheet name="行政事务" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>VoidCraft项目组例会</t>
   </si>
@@ -52,7 +53,46 @@
     <t>孟祥熙</t>
   </si>
   <si>
-    <t>人员保障</t>
+    <t>行政事务</t>
+  </si>
+  <si>
+    <t>事务清单</t>
+  </si>
+  <si>
+    <t>事务</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>公司政务</t>
+  </si>
+  <si>
+    <t>公务活动安排、食宿安排、（公司）文件归档管理</t>
+  </si>
+  <si>
+    <t>内部政务</t>
+  </si>
+  <si>
+    <t>家具/办公用品置办、个人资产管理、杂志订阅</t>
+  </si>
+  <si>
+    <t>场所管理</t>
+  </si>
+  <si>
+    <t>环境维护保养、会议/活动组织安排</t>
+  </si>
+  <si>
+    <t>基础设施</t>
+  </si>
+  <si>
+    <t>水电宽带、饮水饮料</t>
+  </si>
+  <si>
+    <t>人事相关</t>
+  </si>
+  <si>
+    <t>个人福利保障、考勤管理</t>
   </si>
 </sst>
 </file>
@@ -60,9 +100,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -76,46 +116,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0" tint="-0.05"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.05"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0" tint="-0.15"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.15"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,67 +176,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,10 +218,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,36 +276,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,12 +304,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -281,175 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,11 +562,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,17 +601,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,8 +615,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,17 +636,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,157 +650,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,32 +819,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1145,104 +1204,102 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1259,4 +1316,115 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/例会模板.xlsx
+++ b/doc/例会模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="例会模板" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>VoidCraft项目组例会</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>行政事务</t>
+  </si>
+  <si>
+    <t>竞争对手分析</t>
+  </si>
+  <si>
+    <t>短板改进</t>
   </si>
   <si>
     <t>事务清单</t>
@@ -102,10 +108,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,7 +130,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.05"/>
+      <color theme="0" tint="-0.15"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -137,31 +143,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.15"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,37 +182,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,72 +257,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,25 +314,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,157 +482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,30 +560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -603,6 +577,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -612,11 +595,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,6 +648,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,137 +677,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,30 +817,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,6 +843,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1202,107 +1194,133 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -1311,6 +1329,8 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1323,8 +1343,8 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1334,85 +1354,85 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
